--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2487013.277004214</v>
+        <v>2482708.937194346</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>97.26234557100796</v>
       </c>
       <c r="F2" t="n">
-        <v>227.9187527607133</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>116.6468739389269</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>6.694948443987546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>123.8494474712263</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>170.7456066207219</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>12.84496163790563</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>94.41981690171417</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>68.36004337105361</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.06945288101455</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>286.8965430298454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>142.2113575014803</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>91.06264775161314</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>203.9965360389455</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.0135217126364</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.34571932180047</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>21.23835815356743</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>127.5379405516738</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>24.83266606353065</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>118.2774686880305</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444124</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>81.27859867330056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>35.01782305658469</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>118.2774686880305</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>25.7319404949734</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>10.74993283584276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>106.9094576655925</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>130.732365546955</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444126</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>159.3471710336506</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946889</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946889</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>900.5447187946889</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>900.5447187946889</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>670.32375641013</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9467308776107</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9467308776107</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9467308776107</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313625</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>713.6562631339675</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>883.5948104606973</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1000.652410494101</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>770.0582126258191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>541.9223666626326</v>
+        <v>1048.092945820179</v>
       </c>
       <c r="V3" t="n">
-        <v>541.9223666626326</v>
+        <v>1048.092945820179</v>
       </c>
       <c r="W3" t="n">
-        <v>541.9223666626326</v>
+        <v>1048.092945820179</v>
       </c>
       <c r="X3" t="n">
-        <v>541.9223666626326</v>
+        <v>840.2414456146457</v>
       </c>
       <c r="Y3" t="n">
-        <v>334.1620678976788</v>
+        <v>632.4811468496919</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.9546663945495</v>
+        <v>294.1106559736513</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>294.1106559736513</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4494,7 +4494,7 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
@@ -4503,7 +4503,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>753.5926821228065</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>753.5926821228065</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>753.5926821228065</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>753.5926821228065</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W4" t="n">
-        <v>753.5926821228065</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X4" t="n">
-        <v>525.6031312247892</v>
+        <v>294.1106559736513</v>
       </c>
       <c r="Y4" t="n">
-        <v>525.6031312247892</v>
+        <v>294.1106559736513</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.98113264792562</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822816</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822816</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>586.7364457822816</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>586.7364457822816</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>320.3587892151036</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329.2689750668272</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>121.6535314649671</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>268.3979551252638</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>959.4819675800509</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>959.4819675800509</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>959.4819675800509</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>705.2446108518492</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>705.2446108518492</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>497.4843120868953</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.1449104027201</v>
+        <v>424.4249251342376</v>
       </c>
       <c r="C7" t="n">
-        <v>183.2087274748132</v>
+        <v>255.4887422063307</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2087274748132</v>
+        <v>105.3721027939949</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2087274748132</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>36.31877997690287</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.31877997690287</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.31877997690287</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329599</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329599</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7933752329599</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.7933752329599</v>
+        <v>606.0733899644773</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1234.128258049741</v>
+        <v>1653.309834245809</v>
       </c>
       <c r="C8" t="n">
-        <v>1234.128258049741</v>
+        <v>1284.347317305397</v>
       </c>
       <c r="D8" t="n">
-        <v>1234.128258049741</v>
+        <v>926.0816186986467</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>540.2933661004024</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511991</v>
+        <v>129.3074613107949</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
         <v>51.21125520685563</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607415</v>
+        <v>442.1757437607417</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.186282904592</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
         <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
         <v>2359.356530550197</v>
@@ -4831,25 +4831,25 @@
         <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762134</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858407</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383977</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="V8" t="n">
-        <v>1973.496753383977</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="W8" t="n">
-        <v>1620.728098113863</v>
+        <v>2416.9149244827</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.728098113863</v>
+        <v>2043.449166221621</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.728098113863</v>
+        <v>1653.309834245809</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010764</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199494</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586981</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532426</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801276</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763158</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
         <v>51.21125520685563</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637186</v>
+        <v>167.342243139629</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572705</v>
+        <v>613.7598241331809</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907515</v>
+        <v>908.2958075666621</v>
       </c>
       <c r="M9" t="n">
-        <v>1479.338790899455</v>
+        <v>1271.362276040963</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.423193372023</v>
+        <v>1658.446678513532</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359412</v>
+        <v>1990.333488500921</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789036</v>
+        <v>2237.368846930546</v>
       </c>
       <c r="Q9" t="n">
         <v>2560.562760342782</v>
@@ -4925,10 +4925,10 @@
         <v>1513.336856791631</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586098</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821144</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.9635828010427</v>
+        <v>665.0671186274018</v>
       </c>
       <c r="C10" t="n">
-        <v>347.8691164246422</v>
+        <v>496.1309356994949</v>
       </c>
       <c r="D10" t="n">
-        <v>347.8691164246422</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9560228422491</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9560228422491</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422491</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H10" t="n">
         <v>51.21125520685563</v>
@@ -4962,16 +4962,16 @@
         <v>51.21125520685563</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380141</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
         <v>1122.635640101612</v>
@@ -4989,25 +4989,25 @@
         <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699196</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173601</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>927.0292176682431</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>927.0292176682431</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>637.6120476312824</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>637.6120476312824</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>637.6120476312824</v>
+        <v>846.7155834576415</v>
       </c>
     </row>
     <row r="11">
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.800122633203</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2221.945288288107</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="14">
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5545,7 +5545,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8993044876688</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E19" t="n">
-        <v>432.9862109052757</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0962634073653</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>118.9001641222453</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.77365361686</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362673</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>986.1256051221279</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>817.189422194221</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>667.0727827818853</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.556199993915</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1388.566649095898</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1167.774069952368</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,19 +6472,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>819.2033709951103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>669.0867315827745</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7168,49 +7168,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,22 +7393,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7435,22 +7435,22 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591808</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306002</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C43" t="n">
-        <v>2716.780022128636</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>2566.6633827163</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>2566.6633827163</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2419.77343521839</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053497</v>
+        <v>2314.910189088387</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076438</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420636</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.199968177789</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279772</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136242</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5348780504994</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3274571940295</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5348780504994</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915882</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.13373767211337</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>26.13373767211354</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.39745977364683</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>264.474747509497</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>20.98618304348513</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.0084629450604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.63391537253441</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>39.70888054695405</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.8601746357975</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>85.96822242532727</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>111.4161395899845</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>28.15649395853863</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>60.33736343303531</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>66.36248435538656</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
@@ -26340,22 +26340,22 @@
         <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580783</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606938</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101751</v>
+        <v>95270.2377910176</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716747</v>
+        <v>135650.8557716746</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26444,22 +26444,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744244</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744315</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744319</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
         <v>92902.86757567895</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354476.9791930287</v>
+        <v>-354476.9791930282</v>
       </c>
       <c r="C6" t="n">
         <v>325611.0013981647</v>
       </c>
       <c r="D6" t="n">
-        <v>17073.64063938757</v>
+        <v>17073.6406393871</v>
       </c>
       <c r="E6" t="n">
-        <v>7779.59648340955</v>
+        <v>7432.217229052851</v>
       </c>
       <c r="F6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897466</v>
       </c>
       <c r="G6" t="n">
-        <v>515688.8285441036</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="H6" t="n">
-        <v>515688.8285441036</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="I6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897465</v>
       </c>
       <c r="J6" t="n">
-        <v>446689.6741249893</v>
+        <v>446342.2948706323</v>
       </c>
       <c r="K6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897467</v>
       </c>
       <c r="L6" t="n">
-        <v>420418.5907530859</v>
+        <v>420071.2114987288</v>
       </c>
       <c r="M6" t="n">
-        <v>382970.8528486344</v>
+        <v>382623.4735942772</v>
       </c>
       <c r="N6" t="n">
-        <v>515688.8285441035</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="O6" t="n">
-        <v>515688.8285441038</v>
+        <v>515341.4492897464</v>
       </c>
       <c r="P6" t="n">
-        <v>515688.8285441033</v>
+        <v>515341.4492897465</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.774214229571995e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,7 +26792,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
         <v>640.1406900856954</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788914</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="M4" t="n">
         <v>532.567598013953</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>284.6680245012539</v>
       </c>
       <c r="F2" t="n">
-        <v>178.9572929809981</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776184</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>78.1941136459499</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>219.1595390595671</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>24.76602554698604</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>33.97355762287185</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>352.4279301331019</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>180.5549891403835</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27669,10 +27669,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>100.4211706831626</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>78.07391927551556</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>107.081120643794</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.5447505011713</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>95.03382704241636</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>207.0296112159327</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164531925</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.776449164531954</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60.23329938599143</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28061,25 +28061,25 @@
         <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.7919240020275</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
         <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
         <v>0.3002862181508443</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
         <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
         <v>256.36298474637</v>
@@ -31630,13 +31630,13 @@
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
         <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
         <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33031,22 +33031,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,19 +33505,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>553.392502062293</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.75061566860978</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>101.572142489744</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015062</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127574</v>
+        <v>117.3040282149226</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884362</v>
+        <v>450.9268494884363</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.5110943772537</v>
       </c>
       <c r="M9" t="n">
-        <v>631.208554049195</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074636</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>249.5306650804285</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>326.4584983961976</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
         <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
         <v>301.7881314254635</v>
@@ -35348,10 +35348,10 @@
         <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>414.8381222824188</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2482708.937194346</v>
+        <v>2484469.467497132</v>
       </c>
     </row>
     <row r="7">
@@ -661,16 +661,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="E2" t="n">
-        <v>97.26234557100796</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>104.1383913127193</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.219197308813092</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>6.694948443987546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>123.8494474712263</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>238.94785445452</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>232.2791855053265</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.36004337105361</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>216.975516389266</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>142.2113575014803</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>194.9747007711191</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775161314</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611524</v>
+        <v>18.47335059662048</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.3457193218004</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.34571932180047</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.74133133758728</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>185.2536037687257</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>134.0367616438392</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>1.594095449514112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.799772605717069</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>130.732365546955</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4030,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>55.52079624060381</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388466</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044907</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="F2" t="n">
         <v>150.5322560492186</v>
@@ -4333,19 +4333,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4372,10 +4372,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>683.2875691835745</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>464.2658098296238</v>
+        <v>651.4880747542138</v>
       </c>
       <c r="C3" t="n">
-        <v>464.2658098296238</v>
+        <v>477.0350454730868</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>328.1006358118356</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>168.8631808063801</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>22.32862283326503</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>22.32862283326503</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>22.32862283326503</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,22 +4412,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4442,19 +4442,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>1048.092945820179</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>1048.092945820179</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>1048.092945820179</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="X3" t="n">
-        <v>840.2414456146457</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="Y3" t="n">
-        <v>632.4811468496919</v>
+        <v>819.7034117742819</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.1106559736513</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="C4" t="n">
-        <v>294.1106559736513</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="D4" t="n">
         <v>169.0102039825136</v>
@@ -4497,13 +4497,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4527,13 +4527,13 @@
         <v>788.4778634388466</v>
       </c>
       <c r="W4" t="n">
-        <v>522.1002068716687</v>
+        <v>547.1163942928667</v>
       </c>
       <c r="X4" t="n">
-        <v>294.1106559736513</v>
+        <v>319.1268433948493</v>
       </c>
       <c r="Y4" t="n">
-        <v>294.1106559736513</v>
+        <v>319.1268433948493</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388466</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044907</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342376</v>
+        <v>205.2577368622517</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063307</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939949</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>835.6883317340389</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080074</v>
+        <v>607.6987808360216</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644773</v>
+        <v>386.9062016924914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.309834245809</v>
+        <v>1586.879446109798</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.347317305397</v>
+        <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986467</v>
+        <v>859.6512305626362</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004024</v>
+        <v>473.862977964392</v>
       </c>
       <c r="F8" t="n">
-        <v>129.3074613107949</v>
+        <v>62.87707317478441</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I8" t="n">
         <v>51.21125520685563</v>
@@ -4843,13 +4843,13 @@
         <v>2560.562760342782</v>
       </c>
       <c r="W8" t="n">
-        <v>2416.9149244827</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="X8" t="n">
-        <v>2043.449166221621</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1653.309834245809</v>
+        <v>1973.47928617392</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>163.6480708763158</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>69.87120530445208</v>
       </c>
       <c r="I9" t="n">
         <v>51.21125520685563</v>
       </c>
       <c r="J9" t="n">
-        <v>167.342243139629</v>
+        <v>113.4887579637187</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331809</v>
+        <v>482.1680661379767</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666621</v>
+        <v>776.7040495714579</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040963</v>
+        <v>1139.770518045759</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513532</v>
+        <v>1526.854920518328</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500921</v>
+        <v>1858.741730505717</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930546</v>
+        <v>2421.055229888879</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342782</v>
+        <v>2536.272628442624</v>
       </c>
       <c r="R9" t="n">
         <v>2560.562760342782</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274018</v>
+        <v>715.9213805686143</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994949</v>
+        <v>546.9851976407074</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871591</v>
+        <v>396.8685582283716</v>
       </c>
       <c r="E10" t="n">
-        <v>198.101202704766</v>
+        <v>248.9554646459785</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685563</v>
+        <v>102.0655171480682</v>
       </c>
       <c r="G10" t="n">
         <v>51.21125520685563</v>
@@ -4998,16 +4998,16 @@
         <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.91488353615</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.497713499189</v>
+        <v>1346.351975440401</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601172</v>
+        <v>1118.362424542384</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576415</v>
+        <v>897.569845398854</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5117,19 +5117,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>538.7363435406111</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2404.800122633203</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2221.945288288107</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2002.343823311048</v>
+        <v>2009.937693195925</v>
       </c>
       <c r="U13" t="n">
-        <v>1713.268596655246</v>
+        <v>1720.862466540123</v>
       </c>
       <c r="V13" t="n">
-        <v>1458.584108449359</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.166938412398</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X13" t="n">
-        <v>941.1773875143809</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.3848083708508</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>478.4901340122886</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>311.2940347271686</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,19 +5533,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D19" t="n">
-        <v>634.334587849125</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>486.4214942667319</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>959.9969310299522</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>739.204351886422</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6004,10 +6004,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,10 +6478,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6490,13 +6490,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6542,19 +6542,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7168,49 +7168,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7219,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,10 +7435,10 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,46 +7636,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127223</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.39745977364683</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>185.9417291143019</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348513</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.63391537253441</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.257951202384618</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>143.8269525734171</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>43.26526345294946</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408521</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429163</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794897.2062429162</v>
+        <v>794897.2062429161</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>794897.2062429163</v>
+        <v>794897.2062429162</v>
       </c>
     </row>
     <row r="11">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>625538.6147597551</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580786</v>
+        <v>390680.0076580785</v>
       </c>
       <c r="E3" t="n">
         <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910176</v>
+        <v>95270.23779101759</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>247648.567042389</v>
+      </c>
+      <c r="C4" t="n">
         <v>247648.5670423891</v>
       </c>
-      <c r="C4" t="n">
-        <v>247648.567042389</v>
-      </c>
       <c r="D4" t="n">
-        <v>135650.8557716746</v>
+        <v>135650.8557716747</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744244</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744319</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
         <v>92902.86757567895</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354476.9791930282</v>
+        <v>-354476.9791930285</v>
       </c>
       <c r="C6" t="n">
-        <v>325611.0013981647</v>
+        <v>325611.0013981645</v>
       </c>
       <c r="D6" t="n">
-        <v>17073.6406393871</v>
+        <v>17073.64063938745</v>
       </c>
       <c r="E6" t="n">
-        <v>7432.217229052851</v>
+        <v>7744.858557974454</v>
       </c>
       <c r="F6" t="n">
-        <v>515341.4492897466</v>
+        <v>515654.0906186675</v>
       </c>
       <c r="G6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.090618668</v>
       </c>
       <c r="H6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="I6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186684</v>
       </c>
       <c r="J6" t="n">
-        <v>446342.2948706323</v>
+        <v>446654.9361995537</v>
       </c>
       <c r="K6" t="n">
-        <v>515341.4492897467</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="L6" t="n">
-        <v>420071.2114987288</v>
+        <v>420383.8528276502</v>
       </c>
       <c r="M6" t="n">
-        <v>382623.4735942772</v>
+        <v>382936.1149231985</v>
       </c>
       <c r="N6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="O6" t="n">
-        <v>515341.4492897464</v>
+        <v>515654.0906186678</v>
       </c>
       <c r="P6" t="n">
-        <v>515341.4492897465</v>
+        <v>515654.0906186678</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
         <v>933.7024595627826</v>
@@ -26792,7 +26792,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
         <v>640.1406900856954</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933043</v>
+        <v>319.6474457933042</v>
       </c>
       <c r="E3" t="n">
         <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841895</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
         <v>532.567598013953</v>
@@ -27381,16 +27381,16 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>284.6680245012539</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>265.5927093657497</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27460,10 +27460,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>42.70260669269249</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,19 +27514,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>219.1595390595671</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>24.76602554698604</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>47.57514388207096</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>180.5549891403835</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>78.07391927551556</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>69.547481947325</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>207.0296112159327</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>174.7563999073499</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27949,10 +27949,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.776449164531925</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>115.9615342899058</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>201.7919240020275</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175688</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877686</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.3040282149226</v>
+        <v>62.90656844127579</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>372.4033415901596</v>
       </c>
       <c r="L9" t="n">
         <v>297.5110943772537</v>
@@ -35269,13 +35269,13 @@
         <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804285</v>
+        <v>567.9934337203657</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961976</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783569</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
